--- a/medicine/Psychotrope/William_Grant_&_Sons/William_Grant_&_Sons.xlsx
+++ b/medicine/Psychotrope/William_Grant_&_Sons/William_Grant_&_Sons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>William_Grant_%26_Sons</t>
+          <t>William_Grant_&amp;_Sons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 William Grant &amp; Sons Ltd. est une société familiale indépendante écossaise qui  distille et distribue du scotch whisky et d’autres spiritueux. La société a été fondée en 1886 par William Grant et est maintenant contrôlée par les descendants du fondateur. C’est la plus grande entreprise du monde du whisky écossais encore  propriété familiale.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>William_Grant_%26_Sons</t>
+          <t>William_Grant_&amp;_Sons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Grant est né à Dufftown en 1839. Il travaille à la distillerie de Mortlach tout en espérant posséder un jour sa propre distillerie.
 En 1886, il pose la première pierre de sa distillerie : Glenfiddich, et le 25 décembre 1887 a lieu la première distillation.
 En 1892, l'entreprise William Grant &amp; Sons achète une seconde distillerie, située à proximité de la première, Balvenie, et en 1898 nait le premier blend issu uniquement des deux distilleries de la société : Grant’s
 En 1997, William Grant &amp; Sons s’allie avec la famille Robertson (The Edrington Group) pour fonder par coentreprise une nouvelle société, Highland Distillers.
-En juillet 2014, William Grant &amp; Sons serait intéressé par acquérir la marque de liqueur Drambuie[2]. En septembre 2014, William Grant &amp; Sons annonce l'acquisition de la marque de liqueur Drambuie pour un montant inconnu[3].
+En juillet 2014, William Grant &amp; Sons serait intéressé par acquérir la marque de liqueur Drambuie. En septembre 2014, William Grant &amp; Sons annonce l'acquisition de la marque de liqueur Drambuie pour un montant inconnu.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>William_Grant_%26_Sons</t>
+          <t>William_Grant_&amp;_Sons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’entreprise William Grant &amp; Sons a toujours été pionnière dans le monde du whisky :
 Première marque de whisky à exporter sa production.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>William_Grant_%26_Sons</t>
+          <t>William_Grant_&amp;_Sons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distilleries</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Glenfiddich
 Balvenie
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>William_Grant_%26_Sons</t>
+          <t>William_Grant_&amp;_Sons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,19 +638,90 @@
           <t>Les marques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La principale marque de l’entreprise est bien sûr Glenfiddich, la meilleure vente au monde de single malt avec 17,37 % des ventes mondiales du secteur[réf. nécessaire]. C’est plus que les ventes additionnées de ses deux suivants directs[réf. nécessaire].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale marque de l’entreprise est bien sûr Glenfiddich, la meilleure vente au monde de single malt avec 17,37 % des ventes mondiales du secteur[réf. nécessaire]. C’est plus que les ventes additionnées de ses deux suivants directs[réf. nécessaire].
 La marque la plus importante de blend est Grant's. C'est la quatrième plus grosse vente de blend au monde[réf. nécessaire].
-Marques principales
-Glenfiddich
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>William_Grant_&amp;_Sons</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Grant_%26_Sons</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les marques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Marques principales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Glenfiddich
 Grant's
 The Balvenie
 Hendrick's Gin
 Monkey Shoulder
-Tullamore DEW
-Autres marques
-Reyka (Vodka)
+Tullamore DEW</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>William_Grant_&amp;_Sons</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Grant_%26_Sons</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les marques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres marques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Reyka (Vodka)
 Sailor Jerry (rhum)
 Milagro (Tequila)
 Hudson (Bourbon)
@@ -642,9 +731,43 @@
 Vat 19 (rhum)
 Gibson's Finest (Canadian whisky)
 Clan MacGregor (blended Scotch whisky)
-Taboo
-Les marques de Highland Distillers
-The Famous Grouse
+Taboo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>William_Grant_&amp;_Sons</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/William_Grant_%26_Sons</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les marques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Les marques de Highland Distillers</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Famous Grouse
 Macallan
 Highland Park
 Black Bottle
